--- a/20160725/Chargebacks Lori 20160725.xlsx
+++ b/20160725/Chargebacks Lori 20160725.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="44790" yWindow="10635" windowWidth="25125" windowHeight="18540" tabRatio="500"/>
+    <workbookView xWindow="45960" yWindow="10635" windowWidth="25125" windowHeight="18540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oct '15 Lori" sheetId="1" r:id="rId1"/>
@@ -48,12 +48,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="AH129" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Laughrey, Loretta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+8/13 - 2.25 hrs
+8/12 - 2.25 hrs
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="127">
   <si>
     <t>Summary of hours worked - PTR/Behavior Team</t>
   </si>
@@ -425,6 +451,15 @@
   </si>
   <si>
     <t>Misha</t>
+  </si>
+  <si>
+    <t>workstation</t>
+  </si>
+  <si>
+    <t>write documentation; filing</t>
+  </si>
+  <si>
+    <t>8/13 - 2.25hrs</t>
   </si>
 </sst>
 </file>
@@ -1781,9 +1816,54 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1800,51 +1880,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2194,11 +2229,11 @@
   <dimension ref="A1:AZ138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="P83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="AN65" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
-      <selection pane="bottomRight" activeCell="Y89" sqref="Y89"/>
+      <selection pane="bottomRight" activeCell="AN98" sqref="AN98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2227,12 +2262,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="337" t="s">
+      <c r="A1" s="339" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="337"/>
-      <c r="C1" s="337"/>
-      <c r="D1" s="337"/>
+      <c r="B1" s="339"/>
+      <c r="C1" s="339"/>
+      <c r="D1" s="339"/>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2240,10 +2275,10 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="L1" s="337"/>
-      <c r="M1" s="337"/>
-      <c r="N1" s="337"/>
-      <c r="O1" s="337"/>
+      <c r="L1" s="339"/>
+      <c r="M1" s="339"/>
+      <c r="N1" s="339"/>
+      <c r="O1" s="339"/>
       <c r="P1" s="315">
         <v>42576</v>
       </c>
@@ -2382,65 +2417,65 @@
       <c r="O2" s="317" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="341" t="s">
+      <c r="P2" s="356" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="342"/>
-      <c r="R2" s="342"/>
-      <c r="S2" s="342"/>
-      <c r="T2" s="343"/>
+      <c r="Q2" s="357"/>
+      <c r="R2" s="357"/>
+      <c r="S2" s="357"/>
+      <c r="T2" s="358"/>
       <c r="U2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="V2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="W2" s="341" t="s">
+      <c r="W2" s="356" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="342"/>
-      <c r="Y2" s="342"/>
-      <c r="Z2" s="342"/>
-      <c r="AA2" s="343"/>
+      <c r="X2" s="357"/>
+      <c r="Y2" s="357"/>
+      <c r="Z2" s="357"/>
+      <c r="AA2" s="358"/>
       <c r="AB2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="AC2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AD2" s="341" t="s">
+      <c r="AD2" s="356" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="342"/>
-      <c r="AF2" s="342"/>
-      <c r="AG2" s="342"/>
-      <c r="AH2" s="343"/>
+      <c r="AE2" s="357"/>
+      <c r="AF2" s="357"/>
+      <c r="AG2" s="357"/>
+      <c r="AH2" s="358"/>
       <c r="AI2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="AJ2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AK2" s="341" t="s">
+      <c r="AK2" s="356" t="s">
         <v>2</v>
       </c>
-      <c r="AL2" s="342"/>
-      <c r="AM2" s="342"/>
-      <c r="AN2" s="342"/>
-      <c r="AO2" s="343"/>
+      <c r="AL2" s="357"/>
+      <c r="AM2" s="357"/>
+      <c r="AN2" s="357"/>
+      <c r="AO2" s="358"/>
       <c r="AP2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="AQ2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AR2" s="341" t="s">
+      <c r="AR2" s="356" t="s">
         <v>2</v>
       </c>
-      <c r="AS2" s="342"/>
-      <c r="AT2" s="342"/>
-      <c r="AU2" s="342"/>
-      <c r="AV2" s="343"/>
+      <c r="AS2" s="357"/>
+      <c r="AT2" s="357"/>
+      <c r="AU2" s="357"/>
+      <c r="AV2" s="358"/>
       <c r="AW2" s="5" t="s">
         <v>3</v>
       </c>
@@ -2475,57 +2510,57 @@
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="10"/>
-      <c r="P3" s="338" t="s">
+      <c r="P3" s="353" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="339"/>
-      <c r="R3" s="339"/>
-      <c r="S3" s="339"/>
-      <c r="T3" s="340"/>
+      <c r="Q3" s="354"/>
+      <c r="R3" s="354"/>
+      <c r="S3" s="354"/>
+      <c r="T3" s="355"/>
       <c r="U3" s="15" t="s">
         <v>9</v>
       </c>
       <c r="V3" s="16"/>
-      <c r="W3" s="338" t="s">
+      <c r="W3" s="353" t="s">
         <v>10</v>
       </c>
-      <c r="X3" s="339"/>
-      <c r="Y3" s="339"/>
-      <c r="Z3" s="339"/>
-      <c r="AA3" s="340"/>
+      <c r="X3" s="354"/>
+      <c r="Y3" s="354"/>
+      <c r="Z3" s="354"/>
+      <c r="AA3" s="355"/>
       <c r="AB3" s="15" t="s">
         <v>9</v>
       </c>
       <c r="AC3" s="16"/>
-      <c r="AD3" s="338" t="s">
+      <c r="AD3" s="353" t="s">
         <v>11</v>
       </c>
-      <c r="AE3" s="339"/>
-      <c r="AF3" s="339"/>
-      <c r="AG3" s="339"/>
-      <c r="AH3" s="340"/>
+      <c r="AE3" s="354"/>
+      <c r="AF3" s="354"/>
+      <c r="AG3" s="354"/>
+      <c r="AH3" s="355"/>
       <c r="AI3" s="15" t="s">
         <v>9</v>
       </c>
       <c r="AJ3" s="16"/>
-      <c r="AK3" s="338" t="s">
+      <c r="AK3" s="353" t="s">
         <v>12</v>
       </c>
-      <c r="AL3" s="339"/>
-      <c r="AM3" s="339"/>
-      <c r="AN3" s="339"/>
-      <c r="AO3" s="340"/>
+      <c r="AL3" s="354"/>
+      <c r="AM3" s="354"/>
+      <c r="AN3" s="354"/>
+      <c r="AO3" s="355"/>
       <c r="AP3" s="15" t="s">
         <v>9</v>
       </c>
       <c r="AQ3" s="16"/>
-      <c r="AR3" s="338" t="s">
+      <c r="AR3" s="353" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="339"/>
-      <c r="AT3" s="339"/>
-      <c r="AU3" s="339"/>
-      <c r="AV3" s="340"/>
+      <c r="AS3" s="354"/>
+      <c r="AT3" s="354"/>
+      <c r="AU3" s="354"/>
+      <c r="AV3" s="355"/>
       <c r="AW3" s="17" t="s">
         <v>6</v>
       </c>
@@ -2536,10 +2571,10 @@
       <c r="AZ3" s="14"/>
     </row>
     <row r="4" spans="1:52" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="353" t="s">
+      <c r="A4" s="347" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="354"/>
+      <c r="B4" s="348"/>
       <c r="C4" s="19" t="s">
         <v>16</v>
       </c>
@@ -2785,10 +2820,10 @@
       <c r="AV6" s="44"/>
       <c r="AW6" s="50"/>
       <c r="AX6" s="51"/>
-      <c r="AY6" s="355" t="s">
+      <c r="AY6" s="349" t="s">
         <v>27</v>
       </c>
-      <c r="AZ6" s="356"/>
+      <c r="AZ6" s="350"/>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
@@ -5301,10 +5336,10 @@
       <c r="AV28" s="44"/>
       <c r="AW28" s="50"/>
       <c r="AX28" s="51"/>
-      <c r="AY28" s="355" t="s">
+      <c r="AY28" s="349" t="s">
         <v>42</v>
       </c>
-      <c r="AZ28" s="356"/>
+      <c r="AZ28" s="350"/>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A29" s="30"/>
@@ -6322,10 +6357,10 @@
       <c r="AV37" s="124"/>
       <c r="AW37" s="130"/>
       <c r="AX37" s="131"/>
-      <c r="AY37" s="357" t="s">
+      <c r="AY37" s="351" t="s">
         <v>47</v>
       </c>
-      <c r="AZ37" s="358"/>
+      <c r="AZ37" s="352"/>
     </row>
     <row r="38" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A38" s="30"/>
@@ -8548,11 +8583,11 @@
       </c>
       <c r="G57" s="135">
         <f>AI57</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" s="135">
         <f>AP57</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I57" s="136">
         <f>AW57</f>
@@ -8560,7 +8595,7 @@
       </c>
       <c r="J57" s="137">
         <f t="shared" si="27"/>
-        <v>25</v>
+        <v>26.75</v>
       </c>
       <c r="K57" s="138"/>
       <c r="L57" s="139"/>
@@ -8605,22 +8640,28 @@
       <c r="AC57" s="62"/>
       <c r="AD57" s="142"/>
       <c r="AE57" s="136"/>
-      <c r="AF57" s="136"/>
+      <c r="AF57" s="136">
+        <v>1</v>
+      </c>
       <c r="AG57" s="136"/>
       <c r="AH57" s="136"/>
       <c r="AI57" s="143">
         <f>SUM(AD57:AH57)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ57" s="62"/>
       <c r="AK57" s="142"/>
       <c r="AL57" s="136"/>
-      <c r="AM57" s="136"/>
-      <c r="AN57" s="136"/>
+      <c r="AM57" s="136">
+        <v>0.25</v>
+      </c>
+      <c r="AN57" s="136">
+        <v>0.5</v>
+      </c>
       <c r="AO57" s="136"/>
       <c r="AP57" s="143">
         <f>SUM(AK57:AO57)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ57" s="62"/>
       <c r="AR57" s="142"/>
@@ -8634,7 +8675,7 @@
       </c>
       <c r="AX57" s="66">
         <f>U57+AB57+AI57+AP57+AW57</f>
-        <v>25</v>
+        <v>26.75</v>
       </c>
       <c r="AY57" s="165"/>
       <c r="AZ57" s="166" t="s">
@@ -8756,11 +8797,11 @@
       </c>
       <c r="G59" s="136">
         <f>AI135</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H59" s="136">
         <f>AP135</f>
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="I59" s="167">
         <f>AW135</f>
@@ -8768,7 +8809,7 @@
       </c>
       <c r="J59" s="168">
         <f t="shared" si="27"/>
-        <v>9.25</v>
+        <v>26.5</v>
       </c>
       <c r="K59" s="138"/>
       <c r="L59" s="139"/>
@@ -8839,19 +8880,19 @@
       </c>
       <c r="AF59" s="329">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG59" s="329">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="AH59" s="329">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="AI59" s="330">
         <f>AI135</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AJ59" s="62"/>
       <c r="AK59" s="328">
@@ -8864,11 +8905,11 @@
       </c>
       <c r="AM59" s="329">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN59" s="329">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="AO59" s="329">
         <f t="shared" si="43"/>
@@ -8876,7 +8917,7 @@
       </c>
       <c r="AP59" s="330">
         <f>AP135</f>
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AQ59" s="62"/>
       <c r="AR59" s="328">
@@ -8905,7 +8946,7 @@
       </c>
       <c r="AX59" s="66">
         <f>U59+AB59+AI59+AP59+AW59</f>
-        <v>9.25</v>
+        <v>26.5</v>
       </c>
       <c r="AY59" s="144"/>
       <c r="AZ59" s="145" t="s">
@@ -8927,11 +8968,11 @@
       </c>
       <c r="G60" s="152">
         <f>SUM(G56:G59)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H60" s="152">
         <f>SUM(H56:H59)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I60" s="153">
         <f>SUM(I56:I59)</f>
@@ -8939,7 +8980,7 @@
       </c>
       <c r="J60" s="154">
         <f t="shared" si="27"/>
-        <v>34.25</v>
+        <v>53.25</v>
       </c>
       <c r="K60" s="155"/>
       <c r="L60" s="156"/>
@@ -9015,19 +9056,19 @@
       </c>
       <c r="AF60" s="81">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG60" s="81">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="AH60" s="169">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="AI60" s="170">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ60" s="81">
         <f t="shared" si="45"/>
@@ -9043,11 +9084,11 @@
       </c>
       <c r="AM60" s="81">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AN60" s="81">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="AO60" s="169">
         <f t="shared" si="45"/>
@@ -9055,7 +9096,7 @@
       </c>
       <c r="AP60" s="170">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AQ60" s="81">
         <f t="shared" si="45"/>
@@ -9087,7 +9128,7 @@
       </c>
       <c r="AX60" s="93">
         <f t="shared" si="45"/>
-        <v>34.25</v>
+        <v>53.25</v>
       </c>
       <c r="AY60" s="159"/>
       <c r="AZ60" s="160"/>
@@ -9106,11 +9147,11 @@
       </c>
       <c r="G61" s="124">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H61" s="124">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I61" s="172">
         <f t="shared" si="46"/>
@@ -9118,7 +9159,7 @@
       </c>
       <c r="J61" s="172">
         <f t="shared" si="46"/>
-        <v>34.25</v>
+        <v>53.25</v>
       </c>
       <c r="K61" s="126"/>
       <c r="M61" s="173"/>
@@ -9184,19 +9225,19 @@
       </c>
       <c r="AF61" s="124">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG61" s="124">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="AH61" s="172">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="AI61" s="174">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ61" s="124"/>
       <c r="AK61" s="129">
@@ -9209,11 +9250,11 @@
       </c>
       <c r="AM61" s="124">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AN61" s="124">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="AO61" s="172">
         <f t="shared" si="50"/>
@@ -9221,7 +9262,7 @@
       </c>
       <c r="AP61" s="174">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AQ61" s="124"/>
       <c r="AR61" s="129">
@@ -9250,7 +9291,7 @@
       </c>
       <c r="AX61" s="124">
         <f t="shared" si="51"/>
-        <v>34.25</v>
+        <v>53.25</v>
       </c>
       <c r="AY61" s="175"/>
       <c r="AZ61" s="176"/>
@@ -9355,10 +9396,10 @@
       <c r="AV63" s="124"/>
       <c r="AW63" s="130"/>
       <c r="AX63" s="131"/>
-      <c r="AY63" s="357" t="s">
+      <c r="AY63" s="351" t="s">
         <v>66</v>
       </c>
-      <c r="AZ63" s="358"/>
+      <c r="AZ63" s="352"/>
     </row>
     <row r="64" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A64" s="30"/>
@@ -9916,10 +9957,10 @@
       <c r="AV69" s="181"/>
       <c r="AW69" s="187"/>
       <c r="AX69" s="188"/>
-      <c r="AY69" s="344" t="s">
+      <c r="AY69" s="337" t="s">
         <v>69</v>
       </c>
-      <c r="AZ69" s="345"/>
+      <c r="AZ69" s="338"/>
     </row>
     <row r="70" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A70" s="30"/>
@@ -10375,10 +10416,10 @@
       <c r="AV74" s="181"/>
       <c r="AW74" s="187"/>
       <c r="AX74" s="188"/>
-      <c r="AY74" s="344" t="s">
+      <c r="AY74" s="337" t="s">
         <v>72</v>
       </c>
-      <c r="AZ74" s="345"/>
+      <c r="AZ74" s="338"/>
     </row>
     <row r="75" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A75" s="30"/>
@@ -10497,7 +10538,7 @@
       </c>
       <c r="H76" s="192">
         <f>AP76</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="I76" s="193">
         <f>AW76</f>
@@ -10505,7 +10546,7 @@
       </c>
       <c r="J76" s="194">
         <f>SUM(E76:I76)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="K76" s="195"/>
       <c r="L76" s="196"/>
@@ -10546,12 +10587,14 @@
       <c r="AJ76" s="62"/>
       <c r="AK76" s="199"/>
       <c r="AL76" s="193"/>
-      <c r="AM76" s="193"/>
+      <c r="AM76" s="193">
+        <v>1.25</v>
+      </c>
       <c r="AN76" s="193"/>
       <c r="AO76" s="193"/>
       <c r="AP76" s="200">
         <f>SUM(AK76:AO76)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AQ76" s="62"/>
       <c r="AR76" s="199"/>
@@ -10565,7 +10608,7 @@
       </c>
       <c r="AX76" s="66">
         <f>U76+AB76+AI76+AP76+AW76</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AY76" s="197" t="s">
         <v>74</v>
@@ -10589,11 +10632,11 @@
       </c>
       <c r="G77" s="192">
         <f>AI77</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="H77" s="192">
         <f>AP77</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="I77" s="193">
         <f>AW77</f>
@@ -10601,7 +10644,7 @@
       </c>
       <c r="J77" s="194">
         <f>SUM(E77:I77)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K77" s="195"/>
       <c r="L77" s="196"/>
@@ -10632,22 +10675,28 @@
       <c r="AC77" s="62"/>
       <c r="AD77" s="199"/>
       <c r="AE77" s="193"/>
-      <c r="AF77" s="193"/>
+      <c r="AF77" s="193">
+        <v>1.25</v>
+      </c>
       <c r="AG77" s="193"/>
       <c r="AH77" s="193"/>
       <c r="AI77" s="200">
         <f>SUM(AD77:AH77)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AJ77" s="62"/>
       <c r="AK77" s="199"/>
       <c r="AL77" s="193"/>
-      <c r="AM77" s="193"/>
-      <c r="AN77" s="193"/>
+      <c r="AM77" s="193">
+        <v>1</v>
+      </c>
+      <c r="AN77" s="193">
+        <v>0.75</v>
+      </c>
       <c r="AO77" s="193"/>
       <c r="AP77" s="200">
         <f>SUM(AK77:AO77)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AQ77" s="62"/>
       <c r="AR77" s="199"/>
@@ -10661,7 +10710,7 @@
       </c>
       <c r="AX77" s="66">
         <f>U77+AB77+AI77+AP77+AW77</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AY77" s="197" t="s">
         <v>76</v>
@@ -10685,11 +10734,11 @@
       </c>
       <c r="G78" s="192">
         <f>AI78</f>
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="H78" s="192">
         <f>AP78</f>
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="I78" s="193">
         <f>AW78</f>
@@ -10697,7 +10746,7 @@
       </c>
       <c r="J78" s="194">
         <f>SUM(E78:I78)</f>
-        <v>9.25</v>
+        <v>20.25</v>
       </c>
       <c r="K78" s="195"/>
       <c r="L78" s="196"/>
@@ -10742,22 +10791,32 @@
       <c r="AC78" s="62"/>
       <c r="AD78" s="199"/>
       <c r="AE78" s="193"/>
-      <c r="AF78" s="332"/>
-      <c r="AG78" s="193"/>
-      <c r="AH78" s="193"/>
+      <c r="AF78" s="332">
+        <v>2.75</v>
+      </c>
+      <c r="AG78" s="193">
+        <v>2.75</v>
+      </c>
+      <c r="AH78" s="193">
+        <v>2.75</v>
+      </c>
       <c r="AI78" s="200">
         <f>SUM(AD78:AH78)</f>
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="AJ78" s="62"/>
       <c r="AK78" s="199"/>
       <c r="AL78" s="193"/>
-      <c r="AM78" s="193"/>
-      <c r="AN78" s="193"/>
+      <c r="AM78" s="193">
+        <v>0.75</v>
+      </c>
+      <c r="AN78" s="193">
+        <v>2</v>
+      </c>
       <c r="AO78" s="193"/>
       <c r="AP78" s="200">
         <f>SUM(AK78:AO78)</f>
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AQ78" s="62"/>
       <c r="AR78" s="199"/>
@@ -10771,7 +10830,7 @@
       </c>
       <c r="AX78" s="66">
         <f>U78+AB78+AI78+AP78+AW78</f>
-        <v>9.25</v>
+        <v>20.25</v>
       </c>
       <c r="AY78" s="197" t="s">
         <v>77</v>
@@ -10792,11 +10851,11 @@
       </c>
       <c r="G79" s="181">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="H79" s="181">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="I79" s="181">
         <f t="shared" si="64"/>
@@ -10804,7 +10863,7 @@
       </c>
       <c r="J79" s="182">
         <f t="shared" si="64"/>
-        <v>9.25</v>
+        <v>24.5</v>
       </c>
       <c r="K79" s="183"/>
       <c r="M79" s="203"/>
@@ -10870,19 +10929,19 @@
       </c>
       <c r="AF79" s="181">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG79" s="181">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AH79" s="181">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AI79" s="187">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AJ79" s="181"/>
       <c r="AK79" s="186">
@@ -10895,11 +10954,11 @@
       </c>
       <c r="AM79" s="181">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN79" s="181">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AO79" s="181">
         <f t="shared" si="68"/>
@@ -10907,7 +10966,7 @@
       </c>
       <c r="AP79" s="187">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AQ79" s="181"/>
       <c r="AR79" s="186">
@@ -10936,7 +10995,7 @@
       </c>
       <c r="AX79" s="188">
         <f t="shared" si="69"/>
-        <v>9.25</v>
+        <v>24.5</v>
       </c>
       <c r="AY79" s="204"/>
       <c r="AZ79" s="205"/>
@@ -11040,10 +11099,10 @@
       <c r="AV81" s="181"/>
       <c r="AW81" s="187"/>
       <c r="AX81" s="188"/>
-      <c r="AY81" s="344" t="s">
+      <c r="AY81" s="337" t="s">
         <v>78</v>
       </c>
-      <c r="AZ81" s="345"/>
+      <c r="AZ81" s="338"/>
     </row>
     <row r="82" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A82" s="30"/>
@@ -11158,7 +11217,7 @@
       </c>
       <c r="G83" s="192">
         <f>AI83</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="H83" s="192">
         <f>AP83</f>
@@ -11170,10 +11229,12 @@
       </c>
       <c r="J83" s="194">
         <f>SUM(E83:I83)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="K83" s="195"/>
-      <c r="L83" s="196"/>
+      <c r="L83" s="196" t="s">
+        <v>124</v>
+      </c>
       <c r="M83" s="197" t="s">
         <v>80</v>
       </c>
@@ -11201,12 +11262,14 @@
       <c r="AC83" s="62"/>
       <c r="AD83" s="199"/>
       <c r="AE83" s="193"/>
-      <c r="AF83" s="193"/>
+      <c r="AF83" s="193">
+        <v>1.75</v>
+      </c>
       <c r="AG83" s="193"/>
       <c r="AH83" s="193"/>
       <c r="AI83" s="200">
         <f>SUM(AD83:AH83)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AJ83" s="62"/>
       <c r="AK83" s="199"/>
@@ -11230,7 +11293,7 @@
       </c>
       <c r="AX83" s="66">
         <f>U83+AB83+AI83+AP83+AW83</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AY83" s="197" t="s">
         <v>80</v>
@@ -11251,7 +11314,7 @@
       </c>
       <c r="G84" s="181">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="H84" s="181">
         <f t="shared" si="70"/>
@@ -11263,7 +11326,7 @@
       </c>
       <c r="J84" s="182">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="K84" s="183"/>
       <c r="M84" s="203"/>
@@ -11329,7 +11392,7 @@
       </c>
       <c r="AF84" s="181">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AG84" s="181">
         <f t="shared" si="73"/>
@@ -11341,7 +11404,7 @@
       </c>
       <c r="AI84" s="187">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AJ84" s="181"/>
       <c r="AK84" s="186">
@@ -11395,7 +11458,7 @@
       </c>
       <c r="AX84" s="188">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AY84" s="204"/>
       <c r="AZ84" s="205"/>
@@ -11499,10 +11562,10 @@
       <c r="AV86" s="210"/>
       <c r="AW86" s="216"/>
       <c r="AX86" s="217"/>
-      <c r="AY86" s="348" t="s">
+      <c r="AY86" s="342" t="s">
         <v>81</v>
       </c>
-      <c r="AZ86" s="349"/>
+      <c r="AZ86" s="343"/>
     </row>
     <row r="87" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A87" s="30"/>
@@ -11938,11 +12001,11 @@
       </c>
       <c r="G91" s="235">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H91" s="235">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I91" s="235">
         <f t="shared" si="82"/>
@@ -11950,56 +12013,56 @@
       </c>
       <c r="J91" s="237">
         <f t="shared" si="82"/>
-        <v>34.25</v>
+        <v>53.25</v>
       </c>
       <c r="K91" s="235"/>
       <c r="L91" s="235"/>
       <c r="M91" s="238"/>
       <c r="N91" s="239"/>
       <c r="O91" s="38"/>
-      <c r="P91" s="350" t="s">
+      <c r="P91" s="344" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="351"/>
-      <c r="R91" s="351"/>
-      <c r="S91" s="351"/>
-      <c r="T91" s="352"/>
+      <c r="Q91" s="345"/>
+      <c r="R91" s="345"/>
+      <c r="S91" s="345"/>
+      <c r="T91" s="346"/>
       <c r="U91" s="240"/>
       <c r="V91" s="241"/>
-      <c r="W91" s="350" t="s">
+      <c r="W91" s="344" t="s">
         <v>10</v>
       </c>
-      <c r="X91" s="351"/>
-      <c r="Y91" s="351"/>
-      <c r="Z91" s="351"/>
-      <c r="AA91" s="352"/>
+      <c r="X91" s="345"/>
+      <c r="Y91" s="345"/>
+      <c r="Z91" s="345"/>
+      <c r="AA91" s="346"/>
       <c r="AB91" s="240"/>
       <c r="AC91" s="241"/>
-      <c r="AD91" s="350" t="s">
+      <c r="AD91" s="344" t="s">
         <v>11</v>
       </c>
-      <c r="AE91" s="351"/>
-      <c r="AF91" s="351"/>
-      <c r="AG91" s="351"/>
-      <c r="AH91" s="352"/>
+      <c r="AE91" s="345"/>
+      <c r="AF91" s="345"/>
+      <c r="AG91" s="345"/>
+      <c r="AH91" s="346"/>
       <c r="AI91" s="240"/>
       <c r="AJ91" s="241"/>
-      <c r="AK91" s="350" t="s">
+      <c r="AK91" s="344" t="s">
         <v>12</v>
       </c>
-      <c r="AL91" s="351"/>
-      <c r="AM91" s="351"/>
-      <c r="AN91" s="351"/>
-      <c r="AO91" s="352"/>
+      <c r="AL91" s="345"/>
+      <c r="AM91" s="345"/>
+      <c r="AN91" s="345"/>
+      <c r="AO91" s="346"/>
       <c r="AP91" s="240"/>
       <c r="AQ91" s="241"/>
-      <c r="AR91" s="350" t="s">
+      <c r="AR91" s="344" t="s">
         <v>13</v>
       </c>
-      <c r="AS91" s="351"/>
-      <c r="AT91" s="351"/>
-      <c r="AU91" s="351"/>
-      <c r="AV91" s="352"/>
+      <c r="AS91" s="345"/>
+      <c r="AT91" s="345"/>
+      <c r="AU91" s="345"/>
+      <c r="AV91" s="346"/>
       <c r="AW91" s="113"/>
       <c r="AX91" s="242"/>
       <c r="AY91" s="238"/>
@@ -12022,11 +12085,11 @@
       </c>
       <c r="G92" s="235">
         <f t="shared" si="83"/>
-        <v>16</v>
+        <v>27.25</v>
       </c>
       <c r="H92" s="235">
         <f t="shared" si="83"/>
-        <v>20</v>
+        <v>25.75</v>
       </c>
       <c r="I92" s="235">
         <f t="shared" si="83"/>
@@ -12034,46 +12097,46 @@
       </c>
       <c r="J92" s="237">
         <f t="shared" si="83"/>
-        <v>69.25</v>
+        <v>86.25</v>
       </c>
       <c r="K92" s="235"/>
       <c r="L92" s="235"/>
       <c r="M92" s="238"/>
       <c r="N92" s="239"/>
       <c r="O92" s="38"/>
-      <c r="P92" s="350"/>
-      <c r="Q92" s="351"/>
-      <c r="R92" s="351"/>
-      <c r="S92" s="351"/>
-      <c r="T92" s="352"/>
+      <c r="P92" s="344"/>
+      <c r="Q92" s="345"/>
+      <c r="R92" s="345"/>
+      <c r="S92" s="345"/>
+      <c r="T92" s="346"/>
       <c r="U92" s="240"/>
       <c r="V92" s="241"/>
-      <c r="W92" s="350"/>
-      <c r="X92" s="351"/>
-      <c r="Y92" s="351"/>
-      <c r="Z92" s="351"/>
-      <c r="AA92" s="352"/>
+      <c r="W92" s="344"/>
+      <c r="X92" s="345"/>
+      <c r="Y92" s="345"/>
+      <c r="Z92" s="345"/>
+      <c r="AA92" s="346"/>
       <c r="AB92" s="240"/>
       <c r="AC92" s="241"/>
-      <c r="AD92" s="350"/>
-      <c r="AE92" s="351"/>
-      <c r="AF92" s="351"/>
-      <c r="AG92" s="351"/>
-      <c r="AH92" s="352"/>
+      <c r="AD92" s="344"/>
+      <c r="AE92" s="345"/>
+      <c r="AF92" s="345"/>
+      <c r="AG92" s="345"/>
+      <c r="AH92" s="346"/>
       <c r="AI92" s="240"/>
       <c r="AJ92" s="241"/>
-      <c r="AK92" s="350"/>
-      <c r="AL92" s="351"/>
-      <c r="AM92" s="351"/>
-      <c r="AN92" s="351"/>
-      <c r="AO92" s="352"/>
+      <c r="AK92" s="344"/>
+      <c r="AL92" s="345"/>
+      <c r="AM92" s="345"/>
+      <c r="AN92" s="345"/>
+      <c r="AO92" s="346"/>
       <c r="AP92" s="240"/>
       <c r="AQ92" s="241"/>
-      <c r="AR92" s="350"/>
-      <c r="AS92" s="351"/>
-      <c r="AT92" s="351"/>
-      <c r="AU92" s="351"/>
-      <c r="AV92" s="352"/>
+      <c r="AR92" s="344"/>
+      <c r="AS92" s="345"/>
+      <c r="AT92" s="345"/>
+      <c r="AU92" s="345"/>
+      <c r="AV92" s="346"/>
       <c r="AW92" s="113"/>
       <c r="AX92" s="242"/>
       <c r="AY92" s="238"/>
@@ -12096,11 +12159,11 @@
       </c>
       <c r="G93" s="243">
         <f t="shared" si="84"/>
-        <v>16</v>
+        <v>40.25</v>
       </c>
       <c r="H93" s="243">
         <f t="shared" si="84"/>
-        <v>20</v>
+        <v>31.75</v>
       </c>
       <c r="I93" s="243">
         <f t="shared" si="84"/>
@@ -12108,7 +12171,7 @@
       </c>
       <c r="J93" s="245">
         <f t="shared" si="84"/>
-        <v>103.5</v>
+        <v>139.5</v>
       </c>
       <c r="K93" s="243"/>
       <c r="L93" s="243"/>
@@ -12171,15 +12234,15 @@
       </c>
       <c r="AF93" s="331">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="AG93" s="331">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AH93" s="331">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI93" s="247"/>
       <c r="AJ93" s="247"/>
@@ -12193,11 +12256,11 @@
       </c>
       <c r="AM93" s="331">
         <f t="shared" si="88"/>
-        <v>4</v>
+        <v>8.25</v>
       </c>
       <c r="AN93" s="331">
         <f t="shared" si="88"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AO93" s="331">
         <f t="shared" si="88"/>
@@ -12247,11 +12310,11 @@
       </c>
       <c r="G94" s="235">
         <f>40-G93</f>
-        <v>24</v>
+        <v>-0.25</v>
       </c>
       <c r="H94" s="235">
         <f>40-H93</f>
-        <v>20</v>
+        <v>8.25</v>
       </c>
       <c r="I94" s="235">
         <f>40-I93</f>
@@ -12259,7 +12322,7 @@
       </c>
       <c r="J94" s="237">
         <f>SUM(E94:I94)</f>
-        <v>96.5</v>
+        <v>60.5</v>
       </c>
       <c r="K94" s="235"/>
       <c r="L94" s="335" t="s">
@@ -12324,15 +12387,15 @@
       </c>
       <c r="AF94" s="321">
         <f t="shared" ref="AF94" si="96">8-AF93</f>
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="AG94" s="321">
         <f t="shared" ref="AG94" si="97">8-AG93</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AH94" s="334">
         <f t="shared" ref="AH94" si="98">8-AH93</f>
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="AI94" s="113"/>
       <c r="AJ94" s="38"/>
@@ -12346,11 +12409,11 @@
       </c>
       <c r="AM94" s="321">
         <f t="shared" ref="AM94" si="100">8-AM93</f>
-        <v>4</v>
+        <v>-0.25</v>
       </c>
       <c r="AN94" s="321">
         <f t="shared" ref="AN94" si="101">8-AN93</f>
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="AO94" s="334">
         <f t="shared" ref="AO94" si="102">8-AO93</f>
@@ -12400,11 +12463,11 @@
       </c>
       <c r="G95" s="252">
         <f>G91/(40-G87-G88)*100</f>
-        <v>0</v>
+        <v>54.166666666666664</v>
       </c>
       <c r="H95" s="252">
         <f>H91/(40-H87-H88)*100</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I95" s="253">
         <f>I91/(40-I87-I88)*100</f>
@@ -12412,7 +12475,7 @@
       </c>
       <c r="J95" s="252">
         <f>AVERAGEIF(E95:I95,"&lt;&gt;0")</f>
-        <v>64.84375</v>
+        <v>53.463541666666664</v>
       </c>
       <c r="K95" s="244" t="s">
         <v>89</v>
@@ -12444,7 +12507,7 @@
       <c r="AF95" s="38"/>
       <c r="AH95" s="321">
         <f>SUM(AD93:AH93)</f>
-        <v>16</v>
+        <v>40.25</v>
       </c>
       <c r="AI95" s="113"/>
       <c r="AJ95" s="38"/>
@@ -12453,7 +12516,7 @@
       <c r="AM95" s="38"/>
       <c r="AO95" s="321">
         <f>SUM(AK93:AO93)</f>
-        <v>20</v>
+        <v>31.75</v>
       </c>
       <c r="AP95" s="113"/>
       <c r="AQ95" s="38"/>
@@ -12486,11 +12549,11 @@
       </c>
       <c r="G96" s="256">
         <f>G91/40*100</f>
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="H96" s="256">
         <f>H91/40*100</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I96" s="257">
         <f>I91/40*100</f>
@@ -12498,7 +12561,7 @@
       </c>
       <c r="J96" s="256">
         <f>AVERAGEIF(E96:I96,"&lt;&gt;0")</f>
-        <v>42.8125</v>
+        <v>33.28125</v>
       </c>
       <c r="K96" s="258" t="s">
         <v>89</v>
@@ -12601,10 +12664,10 @@
       <c r="AV101" s="268"/>
       <c r="AW101" s="270"/>
       <c r="AX101" s="268"/>
-      <c r="AY101" s="346" t="s">
+      <c r="AY101" s="340" t="s">
         <v>47</v>
       </c>
-      <c r="AZ101" s="347"/>
+      <c r="AZ101" s="341"/>
     </row>
     <row r="102" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A102" s="271"/>
@@ -12625,11 +12688,11 @@
       </c>
       <c r="G102" s="135">
         <f>AI102</f>
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="H102" s="135">
         <f>AP102</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I102" s="136">
         <f>AW102</f>
@@ -12637,10 +12700,12 @@
       </c>
       <c r="J102" s="137">
         <f t="shared" ref="J102:J106" si="107">SUM(E102:I102)</f>
-        <v>0.25</v>
+        <v>7.5</v>
       </c>
       <c r="K102" s="275"/>
-      <c r="L102" s="276"/>
+      <c r="L102" s="276" t="s">
+        <v>125</v>
+      </c>
       <c r="M102" s="140" t="s">
         <v>108</v>
       </c>
@@ -12672,22 +12737,30 @@
       <c r="AC102" s="62"/>
       <c r="AD102" s="142"/>
       <c r="AE102" s="136"/>
-      <c r="AF102" s="136"/>
-      <c r="AG102" s="136"/>
-      <c r="AH102" s="136"/>
+      <c r="AF102" s="136">
+        <v>0.5</v>
+      </c>
+      <c r="AG102" s="136">
+        <v>3.5</v>
+      </c>
+      <c r="AH102" s="136">
+        <v>2.75</v>
+      </c>
       <c r="AI102" s="277">
         <f>SUM(AD102:AH102)</f>
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="AJ102" s="62"/>
       <c r="AK102" s="142"/>
       <c r="AL102" s="136"/>
       <c r="AM102" s="136"/>
-      <c r="AN102" s="136"/>
+      <c r="AN102" s="136">
+        <v>0.5</v>
+      </c>
       <c r="AO102" s="136"/>
       <c r="AP102" s="277">
         <f>SUM(AK102:AO102)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ102" s="62"/>
       <c r="AR102" s="142"/>
@@ -12701,7 +12774,7 @@
       </c>
       <c r="AX102" s="324">
         <f t="shared" ref="AX102:AX106" si="108">U102+AB102+AI102+AP102+AW102</f>
-        <v>0.25</v>
+        <v>7.5</v>
       </c>
       <c r="AY102" s="140" t="s">
         <v>108</v>
@@ -12725,11 +12798,11 @@
       </c>
       <c r="G103" s="153">
         <f>SUM(G98:G102)</f>
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="H103" s="153">
         <f>SUM(H98:H102)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I103" s="153">
         <f>SUM(I98:I102)</f>
@@ -12737,7 +12810,7 @@
       </c>
       <c r="J103" s="154">
         <f t="shared" si="107"/>
-        <v>0.25</v>
+        <v>7.5</v>
       </c>
       <c r="K103" s="281"/>
       <c r="L103" s="282"/>
@@ -12813,19 +12886,19 @@
       </c>
       <c r="AF103" s="81">
         <f t="shared" ref="AF103" si="115">SUM(AF102)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG103" s="81">
         <f t="shared" ref="AG103" si="116">SUM(AG102)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AH103" s="169">
         <f t="shared" ref="AH103" si="117">SUM(AH102)</f>
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AI103" s="283">
         <f>SUM(AI102)</f>
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="AJ103" s="81">
         <f>SUM(AJ102)</f>
@@ -12845,7 +12918,7 @@
       </c>
       <c r="AN103" s="81">
         <f t="shared" ref="AN103" si="120">SUM(AN102)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO103" s="169">
         <f t="shared" ref="AO103" si="121">SUM(AO102)</f>
@@ -12853,7 +12926,7 @@
       </c>
       <c r="AP103" s="283">
         <f>SUM(AP102)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ103" s="81">
         <f>SUM(AQ102)</f>
@@ -12885,7 +12958,7 @@
       </c>
       <c r="AX103" s="325">
         <f>SUM(AX102)</f>
-        <v>0.25</v>
+        <v>7.5</v>
       </c>
       <c r="AY103" s="157"/>
       <c r="AZ103" s="158"/>
@@ -15093,7 +15166,7 @@
       </c>
       <c r="H123" s="135">
         <f>AP123</f>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="I123" s="136">
         <f>AW123</f>
@@ -15151,12 +15224,16 @@
       <c r="AJ123" s="62"/>
       <c r="AK123" s="142"/>
       <c r="AL123" s="136"/>
-      <c r="AM123" s="136"/>
-      <c r="AN123" s="136"/>
+      <c r="AM123" s="136">
+        <v>0.75</v>
+      </c>
+      <c r="AN123" s="136">
+        <v>3</v>
+      </c>
       <c r="AO123" s="136"/>
       <c r="AP123" s="277">
         <f>SUM(AK123:AO123)</f>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AQ123" s="62"/>
       <c r="AR123" s="142"/>
@@ -15170,7 +15247,7 @@
       </c>
       <c r="AX123" s="66">
         <f>U123+AB123+AI123+AP123+AW123</f>
-        <v>8.25</v>
+        <v>12</v>
       </c>
       <c r="AY123" s="294"/>
       <c r="AZ123" s="292" t="s">
@@ -15196,7 +15273,7 @@
       </c>
       <c r="H124" s="153">
         <f>SUM(H120:H123)</f>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="I124" s="153">
         <f>SUM(I120:I123)</f>
@@ -15204,7 +15281,7 @@
       </c>
       <c r="J124" s="154">
         <f>SUM(E124:I124)</f>
-        <v>8.25</v>
+        <v>12</v>
       </c>
       <c r="K124" s="297"/>
       <c r="L124" s="298"/>
@@ -15308,11 +15385,11 @@
       </c>
       <c r="AM124" s="81">
         <f t="shared" si="152"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AN124" s="81">
         <f t="shared" si="152"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO124" s="81">
         <f t="shared" si="152"/>
@@ -15320,7 +15397,7 @@
       </c>
       <c r="AP124" s="283">
         <f t="shared" si="152"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AQ124" s="81">
         <f t="shared" si="152"/>
@@ -15352,7 +15429,7 @@
       </c>
       <c r="AX124" s="93">
         <f t="shared" si="152"/>
-        <v>8.25</v>
+        <v>12</v>
       </c>
       <c r="AY124" s="299"/>
       <c r="AZ124" s="300"/>
@@ -15847,11 +15924,11 @@
       </c>
       <c r="G129" s="135">
         <f>AI129</f>
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="H129" s="135">
         <f>AP129</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" s="136">
         <f>AW129</f>
@@ -15861,7 +15938,9 @@
         <v>0</v>
       </c>
       <c r="K129" s="289"/>
-      <c r="L129" s="290"/>
+      <c r="L129" s="290" t="s">
+        <v>126</v>
+      </c>
       <c r="M129" s="163" t="s">
         <v>102</v>
       </c>
@@ -15894,21 +15973,29 @@
       <c r="AD129" s="142"/>
       <c r="AE129" s="136"/>
       <c r="AF129" s="136"/>
-      <c r="AG129" s="136"/>
-      <c r="AH129" s="136"/>
+      <c r="AG129" s="136">
+        <v>0.75</v>
+      </c>
+      <c r="AH129" s="136">
+        <v>4.5</v>
+      </c>
       <c r="AI129" s="277">
         <f>SUM(AD129:AH129)</f>
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AJ129" s="62"/>
       <c r="AK129" s="142"/>
       <c r="AL129" s="136"/>
-      <c r="AM129" s="136"/>
-      <c r="AN129" s="136"/>
+      <c r="AM129" s="136">
+        <v>0.25</v>
+      </c>
+      <c r="AN129" s="136">
+        <v>0.75</v>
+      </c>
       <c r="AO129" s="136"/>
       <c r="AP129" s="277">
         <f>SUM(AK129:AO129)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ129" s="62"/>
       <c r="AR129" s="142"/>
@@ -15922,7 +16009,7 @@
       </c>
       <c r="AX129" s="66">
         <f>U129+AB129+AI129+AP129+AW129</f>
-        <v>0.75</v>
+        <v>7</v>
       </c>
       <c r="AY129" s="163" t="s">
         <v>102</v>
@@ -16307,11 +16394,11 @@
       </c>
       <c r="G134" s="153">
         <f>SUM(G129:G133)</f>
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="H134" s="153">
         <f>SUM(H129:H133)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" s="153">
         <f>SUM(I129:I133)</f>
@@ -16319,7 +16406,7 @@
       </c>
       <c r="J134" s="154">
         <f>SUM(E134:I134)</f>
-        <v>0.75</v>
+        <v>7</v>
       </c>
       <c r="K134" s="297"/>
       <c r="L134" s="298"/>
@@ -16399,15 +16486,15 @@
       </c>
       <c r="AG134" s="81">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AH134" s="81">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AI134" s="283">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AJ134" s="81">
         <f t="shared" si="166"/>
@@ -16423,11 +16510,11 @@
       </c>
       <c r="AM134" s="81">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AN134" s="81">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AO134" s="81">
         <f t="shared" si="166"/>
@@ -16435,7 +16522,7 @@
       </c>
       <c r="AP134" s="283">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ134" s="81">
         <f t="shared" si="166"/>
@@ -16467,7 +16554,7 @@
       </c>
       <c r="AX134" s="93">
         <f t="shared" si="166"/>
-        <v>0.75</v>
+        <v>7</v>
       </c>
       <c r="AY134" s="159"/>
       <c r="AZ134" s="160"/>
@@ -16489,11 +16576,11 @@
       </c>
       <c r="G135" s="124">
         <f t="shared" si="167"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H135" s="124">
         <f t="shared" si="167"/>
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="I135" s="124">
         <f t="shared" si="167"/>
@@ -16501,7 +16588,7 @@
       </c>
       <c r="J135" s="124">
         <f t="shared" si="167"/>
-        <v>9.25</v>
+        <v>26.5</v>
       </c>
       <c r="K135" s="265"/>
       <c r="L135" s="131"/>
@@ -16568,19 +16655,19 @@
       </c>
       <c r="AF135" s="309">
         <f t="shared" si="170"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG135" s="309">
         <f t="shared" si="170"/>
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="AH135" s="319">
         <f t="shared" si="170"/>
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="AI135" s="311">
         <f t="shared" si="170"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AJ135" s="309"/>
       <c r="AK135" s="310">
@@ -16593,11 +16680,11 @@
       </c>
       <c r="AM135" s="309">
         <f t="shared" si="171"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN135" s="309">
         <f t="shared" si="171"/>
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="AO135" s="319">
         <f t="shared" si="171"/>
@@ -16605,7 +16692,7 @@
       </c>
       <c r="AP135" s="311">
         <f t="shared" si="171"/>
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AQ135" s="309"/>
       <c r="AR135" s="310">
@@ -16642,6 +16729,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="AR3:AV3"/>
+    <mergeCell ref="AK3:AO3"/>
+    <mergeCell ref="AD3:AH3"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="AR2:AV2"/>
+    <mergeCell ref="AK2:AO2"/>
+    <mergeCell ref="AD2:AH2"/>
+    <mergeCell ref="W2:AA2"/>
+    <mergeCell ref="P2:T2"/>
     <mergeCell ref="AY69:AZ69"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="AY101:AZ101"/>
@@ -16658,17 +16756,6 @@
     <mergeCell ref="AY28:AZ28"/>
     <mergeCell ref="AY37:AZ37"/>
     <mergeCell ref="AY63:AZ63"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="AR3:AV3"/>
-    <mergeCell ref="AK3:AO3"/>
-    <mergeCell ref="AD3:AH3"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="AR2:AV2"/>
-    <mergeCell ref="AK2:AO2"/>
-    <mergeCell ref="AD2:AH2"/>
-    <mergeCell ref="W2:AA2"/>
-    <mergeCell ref="P2:T2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/20160725/Chargebacks Lori 20160725.xlsx
+++ b/20160725/Chargebacks Lori 20160725.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="45960" yWindow="10635" windowWidth="25125" windowHeight="18540" tabRatio="500"/>
+    <workbookView xWindow="47130" yWindow="10635" windowWidth="25125" windowHeight="18540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oct '15 Lori" sheetId="1" r:id="rId1"/>
@@ -456,10 +456,10 @@
     <t>workstation</t>
   </si>
   <si>
-    <t>write documentation; filing</t>
+    <t>8/13 - 2.25hrs</t>
   </si>
   <si>
-    <t>8/13 - 2.25hrs</t>
+    <t>write documentation; filing; Zen error analysis</t>
   </si>
 </sst>
 </file>
@@ -1816,15 +1816,33 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1862,24 +1880,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2228,12 +2228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="AN65" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="L1" sqref="L1"/>
-      <selection pane="topRight" activeCell="P1" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
-      <selection pane="bottomRight" activeCell="AN98" sqref="AN98"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="U93" sqref="U93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2262,12 +2258,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="339" t="s">
+      <c r="A1" s="337" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="339"/>
-      <c r="C1" s="339"/>
-      <c r="D1" s="339"/>
+      <c r="B1" s="337"/>
+      <c r="C1" s="337"/>
+      <c r="D1" s="337"/>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2275,10 +2271,10 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="L1" s="339"/>
-      <c r="M1" s="339"/>
-      <c r="N1" s="339"/>
-      <c r="O1" s="339"/>
+      <c r="L1" s="337"/>
+      <c r="M1" s="337"/>
+      <c r="N1" s="337"/>
+      <c r="O1" s="337"/>
       <c r="P1" s="315">
         <v>42576</v>
       </c>
@@ -2417,65 +2413,65 @@
       <c r="O2" s="317" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="356" t="s">
+      <c r="P2" s="341" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="357"/>
-      <c r="R2" s="357"/>
-      <c r="S2" s="357"/>
-      <c r="T2" s="358"/>
+      <c r="Q2" s="342"/>
+      <c r="R2" s="342"/>
+      <c r="S2" s="342"/>
+      <c r="T2" s="343"/>
       <c r="U2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="V2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="W2" s="356" t="s">
+      <c r="W2" s="341" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="357"/>
-      <c r="Y2" s="357"/>
-      <c r="Z2" s="357"/>
-      <c r="AA2" s="358"/>
+      <c r="X2" s="342"/>
+      <c r="Y2" s="342"/>
+      <c r="Z2" s="342"/>
+      <c r="AA2" s="343"/>
       <c r="AB2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="AC2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AD2" s="356" t="s">
+      <c r="AD2" s="341" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="357"/>
-      <c r="AF2" s="357"/>
-      <c r="AG2" s="357"/>
-      <c r="AH2" s="358"/>
+      <c r="AE2" s="342"/>
+      <c r="AF2" s="342"/>
+      <c r="AG2" s="342"/>
+      <c r="AH2" s="343"/>
       <c r="AI2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="AJ2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AK2" s="356" t="s">
+      <c r="AK2" s="341" t="s">
         <v>2</v>
       </c>
-      <c r="AL2" s="357"/>
-      <c r="AM2" s="357"/>
-      <c r="AN2" s="357"/>
-      <c r="AO2" s="358"/>
+      <c r="AL2" s="342"/>
+      <c r="AM2" s="342"/>
+      <c r="AN2" s="342"/>
+      <c r="AO2" s="343"/>
       <c r="AP2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="AQ2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AR2" s="356" t="s">
+      <c r="AR2" s="341" t="s">
         <v>2</v>
       </c>
-      <c r="AS2" s="357"/>
-      <c r="AT2" s="357"/>
-      <c r="AU2" s="357"/>
-      <c r="AV2" s="358"/>
+      <c r="AS2" s="342"/>
+      <c r="AT2" s="342"/>
+      <c r="AU2" s="342"/>
+      <c r="AV2" s="343"/>
       <c r="AW2" s="5" t="s">
         <v>3</v>
       </c>
@@ -2510,57 +2506,57 @@
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="10"/>
-      <c r="P3" s="353" t="s">
+      <c r="P3" s="338" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="354"/>
-      <c r="R3" s="354"/>
-      <c r="S3" s="354"/>
-      <c r="T3" s="355"/>
+      <c r="Q3" s="339"/>
+      <c r="R3" s="339"/>
+      <c r="S3" s="339"/>
+      <c r="T3" s="340"/>
       <c r="U3" s="15" t="s">
         <v>9</v>
       </c>
       <c r="V3" s="16"/>
-      <c r="W3" s="353" t="s">
+      <c r="W3" s="338" t="s">
         <v>10</v>
       </c>
-      <c r="X3" s="354"/>
-      <c r="Y3" s="354"/>
-      <c r="Z3" s="354"/>
-      <c r="AA3" s="355"/>
+      <c r="X3" s="339"/>
+      <c r="Y3" s="339"/>
+      <c r="Z3" s="339"/>
+      <c r="AA3" s="340"/>
       <c r="AB3" s="15" t="s">
         <v>9</v>
       </c>
       <c r="AC3" s="16"/>
-      <c r="AD3" s="353" t="s">
+      <c r="AD3" s="338" t="s">
         <v>11</v>
       </c>
-      <c r="AE3" s="354"/>
-      <c r="AF3" s="354"/>
-      <c r="AG3" s="354"/>
-      <c r="AH3" s="355"/>
+      <c r="AE3" s="339"/>
+      <c r="AF3" s="339"/>
+      <c r="AG3" s="339"/>
+      <c r="AH3" s="340"/>
       <c r="AI3" s="15" t="s">
         <v>9</v>
       </c>
       <c r="AJ3" s="16"/>
-      <c r="AK3" s="353" t="s">
+      <c r="AK3" s="338" t="s">
         <v>12</v>
       </c>
-      <c r="AL3" s="354"/>
-      <c r="AM3" s="354"/>
-      <c r="AN3" s="354"/>
-      <c r="AO3" s="355"/>
+      <c r="AL3" s="339"/>
+      <c r="AM3" s="339"/>
+      <c r="AN3" s="339"/>
+      <c r="AO3" s="340"/>
       <c r="AP3" s="15" t="s">
         <v>9</v>
       </c>
       <c r="AQ3" s="16"/>
-      <c r="AR3" s="353" t="s">
+      <c r="AR3" s="338" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="354"/>
-      <c r="AT3" s="354"/>
-      <c r="AU3" s="354"/>
-      <c r="AV3" s="355"/>
+      <c r="AS3" s="339"/>
+      <c r="AT3" s="339"/>
+      <c r="AU3" s="339"/>
+      <c r="AV3" s="340"/>
       <c r="AW3" s="17" t="s">
         <v>6</v>
       </c>
@@ -2571,10 +2567,10 @@
       <c r="AZ3" s="14"/>
     </row>
     <row r="4" spans="1:52" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="347" t="s">
+      <c r="A4" s="353" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="348"/>
+      <c r="B4" s="354"/>
       <c r="C4" s="19" t="s">
         <v>16</v>
       </c>
@@ -2820,10 +2816,10 @@
       <c r="AV6" s="44"/>
       <c r="AW6" s="50"/>
       <c r="AX6" s="51"/>
-      <c r="AY6" s="349" t="s">
+      <c r="AY6" s="355" t="s">
         <v>27</v>
       </c>
-      <c r="AZ6" s="350"/>
+      <c r="AZ6" s="356"/>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
@@ -5336,10 +5332,10 @@
       <c r="AV28" s="44"/>
       <c r="AW28" s="50"/>
       <c r="AX28" s="51"/>
-      <c r="AY28" s="349" t="s">
+      <c r="AY28" s="355" t="s">
         <v>42</v>
       </c>
-      <c r="AZ28" s="350"/>
+      <c r="AZ28" s="356"/>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A29" s="30"/>
@@ -6357,10 +6353,10 @@
       <c r="AV37" s="124"/>
       <c r="AW37" s="130"/>
       <c r="AX37" s="131"/>
-      <c r="AY37" s="351" t="s">
+      <c r="AY37" s="357" t="s">
         <v>47</v>
       </c>
-      <c r="AZ37" s="352"/>
+      <c r="AZ37" s="358"/>
     </row>
     <row r="38" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A38" s="30"/>
@@ -8587,7 +8583,7 @@
       </c>
       <c r="H57" s="135">
         <f>AP57</f>
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="I57" s="136">
         <f>AW57</f>
@@ -8595,7 +8591,7 @@
       </c>
       <c r="J57" s="137">
         <f t="shared" si="27"/>
-        <v>26.75</v>
+        <v>27.25</v>
       </c>
       <c r="K57" s="138"/>
       <c r="L57" s="139"/>
@@ -8658,10 +8654,12 @@
       <c r="AN57" s="136">
         <v>0.5</v>
       </c>
-      <c r="AO57" s="136"/>
+      <c r="AO57" s="136">
+        <v>0.5</v>
+      </c>
       <c r="AP57" s="143">
         <f>SUM(AK57:AO57)</f>
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="AQ57" s="62"/>
       <c r="AR57" s="142"/>
@@ -8675,7 +8673,7 @@
       </c>
       <c r="AX57" s="66">
         <f>U57+AB57+AI57+AP57+AW57</f>
-        <v>26.75</v>
+        <v>27.25</v>
       </c>
       <c r="AY57" s="165"/>
       <c r="AZ57" s="166" t="s">
@@ -8801,7 +8799,7 @@
       </c>
       <c r="H59" s="136">
         <f>AP135</f>
-        <v>5.25</v>
+        <v>8.75</v>
       </c>
       <c r="I59" s="167">
         <f>AW135</f>
@@ -8809,7 +8807,7 @@
       </c>
       <c r="J59" s="168">
         <f t="shared" si="27"/>
-        <v>26.5</v>
+        <v>30</v>
       </c>
       <c r="K59" s="138"/>
       <c r="L59" s="139"/>
@@ -8913,11 +8911,11 @@
       </c>
       <c r="AO59" s="329">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AP59" s="330">
         <f>AP135</f>
-        <v>5.25</v>
+        <v>8.75</v>
       </c>
       <c r="AQ59" s="62"/>
       <c r="AR59" s="328">
@@ -8946,7 +8944,7 @@
       </c>
       <c r="AX59" s="66">
         <f>U59+AB59+AI59+AP59+AW59</f>
-        <v>26.5</v>
+        <v>30</v>
       </c>
       <c r="AY59" s="144"/>
       <c r="AZ59" s="145" t="s">
@@ -8972,7 +8970,7 @@
       </c>
       <c r="H60" s="152">
         <f>SUM(H56:H59)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I60" s="153">
         <f>SUM(I56:I59)</f>
@@ -8980,7 +8978,7 @@
       </c>
       <c r="J60" s="154">
         <f t="shared" si="27"/>
-        <v>53.25</v>
+        <v>57.25</v>
       </c>
       <c r="K60" s="155"/>
       <c r="L60" s="156"/>
@@ -9092,11 +9090,11 @@
       </c>
       <c r="AO60" s="169">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AP60" s="170">
         <f t="shared" si="45"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AQ60" s="81">
         <f t="shared" si="45"/>
@@ -9128,7 +9126,7 @@
       </c>
       <c r="AX60" s="93">
         <f t="shared" si="45"/>
-        <v>53.25</v>
+        <v>57.25</v>
       </c>
       <c r="AY60" s="159"/>
       <c r="AZ60" s="160"/>
@@ -9151,7 +9149,7 @@
       </c>
       <c r="H61" s="124">
         <f t="shared" si="46"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I61" s="172">
         <f t="shared" si="46"/>
@@ -9159,7 +9157,7 @@
       </c>
       <c r="J61" s="172">
         <f t="shared" si="46"/>
-        <v>53.25</v>
+        <v>57.25</v>
       </c>
       <c r="K61" s="126"/>
       <c r="M61" s="173"/>
@@ -9258,11 +9256,11 @@
       </c>
       <c r="AO61" s="172">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AP61" s="174">
         <f t="shared" si="50"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AQ61" s="124"/>
       <c r="AR61" s="129">
@@ -9291,7 +9289,7 @@
       </c>
       <c r="AX61" s="124">
         <f t="shared" si="51"/>
-        <v>53.25</v>
+        <v>57.25</v>
       </c>
       <c r="AY61" s="175"/>
       <c r="AZ61" s="176"/>
@@ -9396,10 +9394,10 @@
       <c r="AV63" s="124"/>
       <c r="AW63" s="130"/>
       <c r="AX63" s="131"/>
-      <c r="AY63" s="351" t="s">
+      <c r="AY63" s="357" t="s">
         <v>66</v>
       </c>
-      <c r="AZ63" s="352"/>
+      <c r="AZ63" s="358"/>
     </row>
     <row r="64" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A64" s="30"/>
@@ -9957,10 +9955,10 @@
       <c r="AV69" s="181"/>
       <c r="AW69" s="187"/>
       <c r="AX69" s="188"/>
-      <c r="AY69" s="337" t="s">
+      <c r="AY69" s="344" t="s">
         <v>69</v>
       </c>
-      <c r="AZ69" s="338"/>
+      <c r="AZ69" s="345"/>
     </row>
     <row r="70" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A70" s="30"/>
@@ -10416,10 +10414,10 @@
       <c r="AV74" s="181"/>
       <c r="AW74" s="187"/>
       <c r="AX74" s="188"/>
-      <c r="AY74" s="337" t="s">
+      <c r="AY74" s="344" t="s">
         <v>72</v>
       </c>
-      <c r="AZ74" s="338"/>
+      <c r="AZ74" s="345"/>
     </row>
     <row r="75" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A75" s="30"/>
@@ -10636,7 +10634,7 @@
       </c>
       <c r="H77" s="192">
         <f>AP77</f>
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="I77" s="193">
         <f>AW77</f>
@@ -10644,7 +10642,7 @@
       </c>
       <c r="J77" s="194">
         <f>SUM(E77:I77)</f>
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K77" s="195"/>
       <c r="L77" s="196"/>
@@ -10693,10 +10691,12 @@
       <c r="AN77" s="193">
         <v>0.75</v>
       </c>
-      <c r="AO77" s="193"/>
+      <c r="AO77" s="193">
+        <v>0.25</v>
+      </c>
       <c r="AP77" s="200">
         <f>SUM(AK77:AO77)</f>
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ77" s="62"/>
       <c r="AR77" s="199"/>
@@ -10710,7 +10710,7 @@
       </c>
       <c r="AX77" s="66">
         <f>U77+AB77+AI77+AP77+AW77</f>
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AY77" s="197" t="s">
         <v>76</v>
@@ -10738,7 +10738,7 @@
       </c>
       <c r="H78" s="192">
         <f>AP78</f>
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="I78" s="193">
         <f>AW78</f>
@@ -10746,7 +10746,7 @@
       </c>
       <c r="J78" s="194">
         <f>SUM(E78:I78)</f>
-        <v>20.25</v>
+        <v>21.5</v>
       </c>
       <c r="K78" s="195"/>
       <c r="L78" s="196"/>
@@ -10813,10 +10813,12 @@
       <c r="AN78" s="193">
         <v>2</v>
       </c>
-      <c r="AO78" s="193"/>
+      <c r="AO78" s="193">
+        <v>1.25</v>
+      </c>
       <c r="AP78" s="200">
         <f>SUM(AK78:AO78)</f>
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="AQ78" s="62"/>
       <c r="AR78" s="199"/>
@@ -10830,7 +10832,7 @@
       </c>
       <c r="AX78" s="66">
         <f>U78+AB78+AI78+AP78+AW78</f>
-        <v>20.25</v>
+        <v>21.5</v>
       </c>
       <c r="AY78" s="197" t="s">
         <v>77</v>
@@ -10855,7 +10857,7 @@
       </c>
       <c r="H79" s="181">
         <f t="shared" si="64"/>
-        <v>5.75</v>
+        <v>7.25</v>
       </c>
       <c r="I79" s="181">
         <f t="shared" si="64"/>
@@ -10863,7 +10865,7 @@
       </c>
       <c r="J79" s="182">
         <f t="shared" si="64"/>
-        <v>24.5</v>
+        <v>26</v>
       </c>
       <c r="K79" s="183"/>
       <c r="M79" s="203"/>
@@ -10962,11 +10964,11 @@
       </c>
       <c r="AO79" s="181">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP79" s="187">
         <f t="shared" si="68"/>
-        <v>5.75</v>
+        <v>7.25</v>
       </c>
       <c r="AQ79" s="181"/>
       <c r="AR79" s="186">
@@ -10995,7 +10997,7 @@
       </c>
       <c r="AX79" s="188">
         <f t="shared" si="69"/>
-        <v>24.5</v>
+        <v>26</v>
       </c>
       <c r="AY79" s="204"/>
       <c r="AZ79" s="205"/>
@@ -11099,10 +11101,10 @@
       <c r="AV81" s="181"/>
       <c r="AW81" s="187"/>
       <c r="AX81" s="188"/>
-      <c r="AY81" s="337" t="s">
+      <c r="AY81" s="344" t="s">
         <v>78</v>
       </c>
-      <c r="AZ81" s="338"/>
+      <c r="AZ81" s="345"/>
     </row>
     <row r="82" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A82" s="30"/>
@@ -11562,10 +11564,10 @@
       <c r="AV86" s="210"/>
       <c r="AW86" s="216"/>
       <c r="AX86" s="217"/>
-      <c r="AY86" s="342" t="s">
+      <c r="AY86" s="348" t="s">
         <v>81</v>
       </c>
-      <c r="AZ86" s="343"/>
+      <c r="AZ86" s="349"/>
     </row>
     <row r="87" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A87" s="30"/>
@@ -12005,7 +12007,7 @@
       </c>
       <c r="H91" s="235">
         <f t="shared" si="82"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I91" s="235">
         <f t="shared" si="82"/>
@@ -12013,56 +12015,56 @@
       </c>
       <c r="J91" s="237">
         <f t="shared" si="82"/>
-        <v>53.25</v>
+        <v>57.25</v>
       </c>
       <c r="K91" s="235"/>
       <c r="L91" s="235"/>
       <c r="M91" s="238"/>
       <c r="N91" s="239"/>
       <c r="O91" s="38"/>
-      <c r="P91" s="344" t="s">
+      <c r="P91" s="350" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="345"/>
-      <c r="R91" s="345"/>
-      <c r="S91" s="345"/>
-      <c r="T91" s="346"/>
+      <c r="Q91" s="351"/>
+      <c r="R91" s="351"/>
+      <c r="S91" s="351"/>
+      <c r="T91" s="352"/>
       <c r="U91" s="240"/>
       <c r="V91" s="241"/>
-      <c r="W91" s="344" t="s">
+      <c r="W91" s="350" t="s">
         <v>10</v>
       </c>
-      <c r="X91" s="345"/>
-      <c r="Y91" s="345"/>
-      <c r="Z91" s="345"/>
-      <c r="AA91" s="346"/>
+      <c r="X91" s="351"/>
+      <c r="Y91" s="351"/>
+      <c r="Z91" s="351"/>
+      <c r="AA91" s="352"/>
       <c r="AB91" s="240"/>
       <c r="AC91" s="241"/>
-      <c r="AD91" s="344" t="s">
+      <c r="AD91" s="350" t="s">
         <v>11</v>
       </c>
-      <c r="AE91" s="345"/>
-      <c r="AF91" s="345"/>
-      <c r="AG91" s="345"/>
-      <c r="AH91" s="346"/>
+      <c r="AE91" s="351"/>
+      <c r="AF91" s="351"/>
+      <c r="AG91" s="351"/>
+      <c r="AH91" s="352"/>
       <c r="AI91" s="240"/>
       <c r="AJ91" s="241"/>
-      <c r="AK91" s="344" t="s">
+      <c r="AK91" s="350" t="s">
         <v>12</v>
       </c>
-      <c r="AL91" s="345"/>
-      <c r="AM91" s="345"/>
-      <c r="AN91" s="345"/>
-      <c r="AO91" s="346"/>
+      <c r="AL91" s="351"/>
+      <c r="AM91" s="351"/>
+      <c r="AN91" s="351"/>
+      <c r="AO91" s="352"/>
       <c r="AP91" s="240"/>
       <c r="AQ91" s="241"/>
-      <c r="AR91" s="344" t="s">
+      <c r="AR91" s="350" t="s">
         <v>13</v>
       </c>
-      <c r="AS91" s="345"/>
-      <c r="AT91" s="345"/>
-      <c r="AU91" s="345"/>
-      <c r="AV91" s="346"/>
+      <c r="AS91" s="351"/>
+      <c r="AT91" s="351"/>
+      <c r="AU91" s="351"/>
+      <c r="AV91" s="352"/>
       <c r="AW91" s="113"/>
       <c r="AX91" s="242"/>
       <c r="AY91" s="238"/>
@@ -12089,7 +12091,7 @@
       </c>
       <c r="H92" s="235">
         <f t="shared" si="83"/>
-        <v>25.75</v>
+        <v>27.25</v>
       </c>
       <c r="I92" s="235">
         <f t="shared" si="83"/>
@@ -12097,46 +12099,46 @@
       </c>
       <c r="J92" s="237">
         <f t="shared" si="83"/>
-        <v>86.25</v>
+        <v>87.75</v>
       </c>
       <c r="K92" s="235"/>
       <c r="L92" s="235"/>
       <c r="M92" s="238"/>
       <c r="N92" s="239"/>
       <c r="O92" s="38"/>
-      <c r="P92" s="344"/>
-      <c r="Q92" s="345"/>
-      <c r="R92" s="345"/>
-      <c r="S92" s="345"/>
-      <c r="T92" s="346"/>
+      <c r="P92" s="350"/>
+      <c r="Q92" s="351"/>
+      <c r="R92" s="351"/>
+      <c r="S92" s="351"/>
+      <c r="T92" s="352"/>
       <c r="U92" s="240"/>
       <c r="V92" s="241"/>
-      <c r="W92" s="344"/>
-      <c r="X92" s="345"/>
-      <c r="Y92" s="345"/>
-      <c r="Z92" s="345"/>
-      <c r="AA92" s="346"/>
+      <c r="W92" s="350"/>
+      <c r="X92" s="351"/>
+      <c r="Y92" s="351"/>
+      <c r="Z92" s="351"/>
+      <c r="AA92" s="352"/>
       <c r="AB92" s="240"/>
       <c r="AC92" s="241"/>
-      <c r="AD92" s="344"/>
-      <c r="AE92" s="345"/>
-      <c r="AF92" s="345"/>
-      <c r="AG92" s="345"/>
-      <c r="AH92" s="346"/>
+      <c r="AD92" s="350"/>
+      <c r="AE92" s="351"/>
+      <c r="AF92" s="351"/>
+      <c r="AG92" s="351"/>
+      <c r="AH92" s="352"/>
       <c r="AI92" s="240"/>
       <c r="AJ92" s="241"/>
-      <c r="AK92" s="344"/>
-      <c r="AL92" s="345"/>
-      <c r="AM92" s="345"/>
-      <c r="AN92" s="345"/>
-      <c r="AO92" s="346"/>
+      <c r="AK92" s="350"/>
+      <c r="AL92" s="351"/>
+      <c r="AM92" s="351"/>
+      <c r="AN92" s="351"/>
+      <c r="AO92" s="352"/>
       <c r="AP92" s="240"/>
       <c r="AQ92" s="241"/>
-      <c r="AR92" s="344"/>
-      <c r="AS92" s="345"/>
-      <c r="AT92" s="345"/>
-      <c r="AU92" s="345"/>
-      <c r="AV92" s="346"/>
+      <c r="AR92" s="350"/>
+      <c r="AS92" s="351"/>
+      <c r="AT92" s="351"/>
+      <c r="AU92" s="351"/>
+      <c r="AV92" s="352"/>
       <c r="AW92" s="113"/>
       <c r="AX92" s="242"/>
       <c r="AY92" s="238"/>
@@ -12163,7 +12165,7 @@
       </c>
       <c r="H93" s="243">
         <f t="shared" si="84"/>
-        <v>31.75</v>
+        <v>37.25</v>
       </c>
       <c r="I93" s="243">
         <f t="shared" si="84"/>
@@ -12171,7 +12173,7 @@
       </c>
       <c r="J93" s="245">
         <f t="shared" si="84"/>
-        <v>139.5</v>
+        <v>145</v>
       </c>
       <c r="K93" s="243"/>
       <c r="L93" s="243"/>
@@ -12185,7 +12187,7 @@
         <v>5.75</v>
       </c>
       <c r="Q93" s="331">
-        <f t="shared" ref="Q93:T93" si="85">Q26+Q89+Q84+Q79+Q72+Q67+Q61+Q35</f>
+        <f t="shared" ref="Q93:U93" si="85">Q26+Q89+Q84+Q79+Q72+Q67+Q61+Q35</f>
         <v>8</v>
       </c>
       <c r="R93" s="331">
@@ -12200,7 +12202,7 @@
         <f t="shared" si="85"/>
         <v>7.25</v>
       </c>
-      <c r="U93" s="247"/>
+      <c r="U93" s="331"/>
       <c r="V93" s="247"/>
       <c r="W93" s="331">
         <f>W26+W89+W84+W79+W72+W67+W61+W35</f>
@@ -12264,7 +12266,7 @@
       </c>
       <c r="AO93" s="331">
         <f t="shared" si="88"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AP93" s="247"/>
       <c r="AQ93" s="247"/>
@@ -12314,7 +12316,7 @@
       </c>
       <c r="H94" s="235">
         <f>40-H93</f>
-        <v>8.25</v>
+        <v>2.75</v>
       </c>
       <c r="I94" s="235">
         <f>40-I93</f>
@@ -12322,7 +12324,7 @@
       </c>
       <c r="J94" s="237">
         <f>SUM(E94:I94)</f>
-        <v>60.5</v>
+        <v>55</v>
       </c>
       <c r="K94" s="235"/>
       <c r="L94" s="335" t="s">
@@ -12417,7 +12419,7 @@
       </c>
       <c r="AO94" s="334">
         <f t="shared" ref="AO94" si="102">8-AO93</f>
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="AP94" s="113"/>
       <c r="AQ94" s="38"/>
@@ -12467,7 +12469,7 @@
       </c>
       <c r="H95" s="252">
         <f>H91/(40-H87-H88)*100</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I95" s="253">
         <f>I91/(40-I87-I88)*100</f>
@@ -12475,7 +12477,7 @@
       </c>
       <c r="J95" s="252">
         <f>AVERAGEIF(E95:I95,"&lt;&gt;0")</f>
-        <v>53.463541666666664</v>
+        <v>58.463541666666664</v>
       </c>
       <c r="K95" s="244" t="s">
         <v>89</v>
@@ -12516,7 +12518,7 @@
       <c r="AM95" s="38"/>
       <c r="AO95" s="321">
         <f>SUM(AK93:AO93)</f>
-        <v>31.75</v>
+        <v>37.25</v>
       </c>
       <c r="AP95" s="113"/>
       <c r="AQ95" s="38"/>
@@ -12553,7 +12555,7 @@
       </c>
       <c r="H96" s="256">
         <f>H91/40*100</f>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I96" s="257">
         <f>I91/40*100</f>
@@ -12561,7 +12563,7 @@
       </c>
       <c r="J96" s="256">
         <f>AVERAGEIF(E96:I96,"&lt;&gt;0")</f>
-        <v>33.28125</v>
+        <v>35.78125</v>
       </c>
       <c r="K96" s="258" t="s">
         <v>89</v>
@@ -12664,10 +12666,10 @@
       <c r="AV101" s="268"/>
       <c r="AW101" s="270"/>
       <c r="AX101" s="268"/>
-      <c r="AY101" s="340" t="s">
+      <c r="AY101" s="346" t="s">
         <v>47</v>
       </c>
-      <c r="AZ101" s="341"/>
+      <c r="AZ101" s="347"/>
     </row>
     <row r="102" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A102" s="271"/>
@@ -12692,7 +12694,7 @@
       </c>
       <c r="H102" s="135">
         <f>AP102</f>
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="I102" s="136">
         <f>AW102</f>
@@ -12700,11 +12702,11 @@
       </c>
       <c r="J102" s="137">
         <f t="shared" ref="J102:J106" si="107">SUM(E102:I102)</f>
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="K102" s="275"/>
       <c r="L102" s="276" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M102" s="140" t="s">
         <v>108</v>
@@ -12757,10 +12759,12 @@
       <c r="AN102" s="136">
         <v>0.5</v>
       </c>
-      <c r="AO102" s="136"/>
+      <c r="AO102" s="136">
+        <v>2</v>
+      </c>
       <c r="AP102" s="277">
         <f>SUM(AK102:AO102)</f>
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="AQ102" s="62"/>
       <c r="AR102" s="142"/>
@@ -12774,7 +12778,7 @@
       </c>
       <c r="AX102" s="324">
         <f t="shared" ref="AX102:AX106" si="108">U102+AB102+AI102+AP102+AW102</f>
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AY102" s="140" t="s">
         <v>108</v>
@@ -12802,7 +12806,7 @@
       </c>
       <c r="H103" s="153">
         <f>SUM(H98:H102)</f>
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="I103" s="153">
         <f>SUM(I98:I102)</f>
@@ -12810,7 +12814,7 @@
       </c>
       <c r="J103" s="154">
         <f t="shared" si="107"/>
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="K103" s="281"/>
       <c r="L103" s="282"/>
@@ -12922,11 +12926,11 @@
       </c>
       <c r="AO103" s="169">
         <f t="shared" ref="AO103" si="121">SUM(AO102)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP103" s="283">
         <f>SUM(AP102)</f>
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="AQ103" s="81">
         <f>SUM(AQ102)</f>
@@ -12958,7 +12962,7 @@
       </c>
       <c r="AX103" s="325">
         <f>SUM(AX102)</f>
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AY103" s="157"/>
       <c r="AZ103" s="158"/>
@@ -15166,7 +15170,7 @@
       </c>
       <c r="H123" s="135">
         <f>AP123</f>
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="I123" s="136">
         <f>AW123</f>
@@ -15230,10 +15234,12 @@
       <c r="AN123" s="136">
         <v>3</v>
       </c>
-      <c r="AO123" s="136"/>
+      <c r="AO123" s="136">
+        <v>1.5</v>
+      </c>
       <c r="AP123" s="277">
         <f>SUM(AK123:AO123)</f>
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="AQ123" s="62"/>
       <c r="AR123" s="142"/>
@@ -15247,7 +15253,7 @@
       </c>
       <c r="AX123" s="66">
         <f>U123+AB123+AI123+AP123+AW123</f>
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AY123" s="294"/>
       <c r="AZ123" s="292" t="s">
@@ -15273,7 +15279,7 @@
       </c>
       <c r="H124" s="153">
         <f>SUM(H120:H123)</f>
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="I124" s="153">
         <f>SUM(I120:I123)</f>
@@ -15281,7 +15287,7 @@
       </c>
       <c r="J124" s="154">
         <f>SUM(E124:I124)</f>
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="K124" s="297"/>
       <c r="L124" s="298"/>
@@ -15393,11 +15399,11 @@
       </c>
       <c r="AO124" s="81">
         <f t="shared" si="152"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP124" s="283">
         <f t="shared" si="152"/>
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="AQ124" s="81">
         <f t="shared" si="152"/>
@@ -15429,7 +15435,7 @@
       </c>
       <c r="AX124" s="93">
         <f t="shared" si="152"/>
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AY124" s="299"/>
       <c r="AZ124" s="300"/>
@@ -15939,7 +15945,7 @@
       </c>
       <c r="K129" s="289"/>
       <c r="L129" s="290" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M129" s="163" t="s">
         <v>102</v>
@@ -16580,7 +16586,7 @@
       </c>
       <c r="H135" s="124">
         <f t="shared" si="167"/>
-        <v>5.25</v>
+        <v>8.75</v>
       </c>
       <c r="I135" s="124">
         <f t="shared" si="167"/>
@@ -16588,7 +16594,7 @@
       </c>
       <c r="J135" s="124">
         <f t="shared" si="167"/>
-        <v>26.5</v>
+        <v>30</v>
       </c>
       <c r="K135" s="265"/>
       <c r="L135" s="131"/>
@@ -16688,11 +16694,11 @@
       </c>
       <c r="AO135" s="319">
         <f t="shared" si="171"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AP135" s="311">
         <f t="shared" si="171"/>
-        <v>5.25</v>
+        <v>8.75</v>
       </c>
       <c r="AQ135" s="309"/>
       <c r="AR135" s="310">
@@ -16729,17 +16735,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="AR3:AV3"/>
-    <mergeCell ref="AK3:AO3"/>
-    <mergeCell ref="AD3:AH3"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="AR2:AV2"/>
-    <mergeCell ref="AK2:AO2"/>
-    <mergeCell ref="AD2:AH2"/>
-    <mergeCell ref="W2:AA2"/>
-    <mergeCell ref="P2:T2"/>
     <mergeCell ref="AY69:AZ69"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="AY101:AZ101"/>
@@ -16756,6 +16751,17 @@
     <mergeCell ref="AY28:AZ28"/>
     <mergeCell ref="AY37:AZ37"/>
     <mergeCell ref="AY63:AZ63"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="AR3:AV3"/>
+    <mergeCell ref="AK3:AO3"/>
+    <mergeCell ref="AD3:AH3"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="AR2:AV2"/>
+    <mergeCell ref="AK2:AO2"/>
+    <mergeCell ref="AD2:AH2"/>
+    <mergeCell ref="W2:AA2"/>
+    <mergeCell ref="P2:T2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
